--- a/Ratio.xlsx
+++ b/Ratio.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI_FinAnalysis\AILed3\aled34\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI_FinAnalysis\AILed3\aled43\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8ED14C6-4F60-4FD8-B219-C1B17F6C551B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43D870D-B342-49AE-8927-9D36AC744688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -103,13 +103,13 @@
     <t>Depth</t>
   </si>
   <si>
-    <t>Detailed Analysis Of ROE</t>
-  </si>
-  <si>
-    <t>Detailed Analysis Of ROE Driver</t>
-  </si>
-  <si>
-    <t>Detailed Analysis Of Risk</t>
+    <t>Detailed Analysis of ROE</t>
+  </si>
+  <si>
+    <t>Detailed Analysis of ROE Driver</t>
+  </si>
+  <si>
+    <t>Detailed Analysis of Risk</t>
   </si>
 </sst>
 </file>
@@ -476,7 +476,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Ratio.xlsx
+++ b/Ratio.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI_FinAnalysis\AILed3\aled43\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\AI_FinAnalysis\Production\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E43D870D-B342-49AE-8927-9D36AC744688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E270218-AD8A-47C4-B34D-501648230252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -106,10 +106,10 @@
     <t>Detailed Analysis of ROE</t>
   </si>
   <si>
-    <t>Detailed Analysis of ROE Driver</t>
-  </si>
-  <si>
     <t>Detailed Analysis of Risk</t>
+  </si>
+  <si>
+    <t>Detailed Analysis of ROE Drivers</t>
   </si>
 </sst>
 </file>
@@ -476,7 +476,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -510,7 +510,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
@@ -521,7 +521,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
         <v>7</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
         <v>9</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -554,7 +554,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
         <v>13</v>
@@ -565,7 +565,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
@@ -576,7 +576,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -587,7 +587,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
         <v>19</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
         <v>21</v>
@@ -609,7 +609,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" t="s">
         <v>23</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B13" t="s">
         <v>25</v>
